--- a/FMP/Assets/Resources/Sheets/角色表.xlsx
+++ b/FMP/Assets/Resources/Sheets/角色表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserDocuments\GamesDesign\UnityXmlRW\FMP\Assets\Resources\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AA7F64-2704-46DE-8FC0-41A0A0E2B8F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4388FBDB-15E1-4059-BD09-D9F762F3ECA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2380" yWindow="2770" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="人物" sheetId="2" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,11 +91,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Images/jour</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>你</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旁白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王爷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奴才</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/default</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -207,8 +219,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{01867D14-438D-468E-8417-C64A2898D8FF}" name="表4" displayName="表4" ref="A1:C4" tableType="xml" totalsRowShown="0" connectionId="2">
-  <autoFilter ref="A1:C4" xr:uid="{01867D14-438D-468E-8417-C64A2898D8FF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{01867D14-438D-468E-8417-C64A2898D8FF}" name="表4" displayName="表4" ref="A1:C7" tableType="xml" totalsRowShown="0" connectionId="2">
+  <autoFilter ref="A1:C7" xr:uid="{01867D14-438D-468E-8417-C64A2898D8FF}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{A862560A-D215-4805-9E74-188B761BE6B3}" uniqueName="id" name="id">
       <xmlColumnPr mapId="2" xpath="/characters/character/@id" xmlDataType="string"/>
@@ -498,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{696EF98A-0CD1-4A17-9B1A-8A9C2C8D397B}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -541,7 +553,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -549,7 +561,34 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
